--- a/Género/Violencia contra Mujer/27.10.xlsx
+++ b/Género/Violencia contra Mujer/27.10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E74C191-0384-4DA0-8CBE-F731C2ED7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B4F1C-E862-49D1-837B-1CE63BAE08F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5422DB66-C475-4DB2-AFB3-719DC9152F2B}"/>
   </bookViews>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB49A02-242A-4F56-B4F1-53B0D6E79DCF}">
   <dimension ref="A1:P694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
